--- a/data/long_razon/P23_4-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_4-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-46,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-64,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-65,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>52,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-56,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-20,02%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-78,3; 30,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-91,04; 5,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-86,51; -28,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,86; 294,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-76,55; -20,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-56,69; 46,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-49,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>131,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-26,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-37,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-83,09; 9,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 467,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,55; 33,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,76; 40,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,97; -0,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 155,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-33,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>165,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-33,54; 83,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-38,12; 81,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-57,3; -3,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71,07; 303,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,59; 23,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,51; 135,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-24,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,36; 76,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,08; 15,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 65,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 54,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 51,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 21,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-35,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-25,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-62,35; 2,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-56,11; 18,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 184,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 70,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 39,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 26,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-18,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-32,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-25,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 49,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,55; 47,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,42; 31,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 339,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,5; 14,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 109,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-19,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-18,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-18,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-36,94; 5,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 24,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 0,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,92; 75,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-31,2; -3,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 37,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P23_4-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_4-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.2186149777566957</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.6914995201636731</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.101473054786865</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.5579624222110529</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.6142489331479672</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.4381288940260906</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.5806537849432277</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>1.577423026512415</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.426311330613972</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.2893822421866042</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>1.184105686584727</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.9840253977571425</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.715183816265851</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.9150337972332705</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2383954875164089</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.6208185764047982</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.8370295021688524</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3485379279066811</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.1733735432158101</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.03338278209939534</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.6917394787245505</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.6551238543032077</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.1755888383216281</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.08554855671585108</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,40 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>1.061688960516035</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.02343935382603795</v>
+      </c>
       <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>4.27496218782969</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.1646062229638766</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.38620538241969</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.492971881607776</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>7.799062519563264</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.1443662538761055</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.2477888740202664</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>3.359370419776551</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>3.450184322833819</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +793,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.5226941056674013</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.255993098445237</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.613047415581092</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.2142896545427136</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.1861768761382367</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.1630955078362361</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.1933362086035257</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.541988995080806</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.3488456100339338</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.3868173302849044</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>1.117433240745036</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.1972253718445057</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +837,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.8524628956172459</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.0654134995139808</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.3824677165788233</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7826112398620985</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.5058629135433611</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.5019448300667564</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.4097502583447422</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1243179844704401</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.6178364202484097</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.1394402466634645</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.1990696491921015</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.3672733531296605</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +881,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.0103406188528433</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.759343305112449</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.440207842539259</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.993260597652851</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3580425785587256</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.3838487797643833</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.358273944560507</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1.983280776526019</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.04467116814482029</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.573456449196299</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>3.100099308652523</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.206053723689919</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +929,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.1332666784710582</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.09817509305294621</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1540941018755783</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.3792203620005568</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.3232575220319124</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1.589584052945748</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.2714845730777178</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.2706247926893102</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.09970784475484784</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.6761724734752483</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.2091287143576894</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.3336803060816249</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +973,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.2907251043362433</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3500966856352902</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5194563456092072</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.192107267751207</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.5723496383052927</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.654169353250476</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.5046046380627081</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2954179166047958</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.3616748571582614</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.2193058757177772</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.426016133904226</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.1234229276885556</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1017,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.003351920260707</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.7920345508030677</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.3205432337481802</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.356701551648348</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.05493646909859033</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.837593621339126</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.1511041045585234</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.327722891444969</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.3350742627322901</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.353074633476057</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.05200235344637665</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.9964737903262443</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1065,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.04359906456504139</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2135645418640363</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5129760224448919</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2039739316844875</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1308699645603669</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.1520553261213493</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.07771655404165884</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.2532512419864871</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.09029319062194033</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.03085075339724392</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.2761200585467247</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.0299723317329855</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1109,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.3391964252698524</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4774737894027654</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.04557381411310756</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.4114719181399468</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2092494814906951</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1677309227437046</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2460138743782109</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.5868131949949195</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1649487267340932</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.2377425439606786</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.05030880943258038</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.3744448284699119</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1153,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.6915724524061552</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.1959914446747113</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.587441118901953</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.275747803288409</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.5627529531668498</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5531649086122836</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.5587343679039029</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.3459057634775013</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.4473777503510799</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.2624857064929749</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.761354036902918</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.5136357564204159</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1201,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.3859725443704176</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.2696004123028424</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.829871335879122</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.08652370462808985</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.5597890777282101</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.07942197673806181</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>-0.1740456530808544</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.6053587157712922</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.07957401163758471</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>-0.09202341286375851</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.1558540608936624</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.1818379771211694</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1245,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.6430306364527395</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.5703285473465052</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.03753891044409589</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.4724894783186798</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.04947007909286744</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.2838292989098185</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.5096539318919983</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.001556857884226606</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3804936744505305</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.3442698886950457</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.2104203666292282</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.2011411542326053</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1289,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>-0.009703284030235456</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.147945587668542</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2.331616857756808</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.5052988667127868</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.827597350826804</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.6520304695155503</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.3849157889549488</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>1.884105638267404</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.331765476090163</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.2271465815489698</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.749773843166279</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.7066908826029606</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1337,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.1316497960683295</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.1347715300000508</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.006112954505874258</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-0.2239874871713589</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.2997931029488711</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.922363587970172</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.08165465209473045</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>-0.4845358664957478</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.2233544462408122</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.2317583105219398</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.03882729138287155</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>-0.3861882616121027</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1381,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.5930734726631801</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.4921733835005273</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.6033663819045589</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.7623970290556399</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.6494229869193764</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.08940809430518257</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.59798689757968</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.8610021694861445</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.5133348407594468</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.210739539320933</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.431814409930508</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.7323279123159961</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1425,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.7033068346503765</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.4564969413331318</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>1.207511685308948</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1.160974754311972</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.3431169575704613</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>2.890361538681164</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.429309857518233</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.4262183396634348</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.1701007063199143</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.8865093103559623</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.8180312471934217</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.2986606398802354</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1473,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.1551297417999565</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.07374689765768846</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5275346825858697</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.09978788849196737</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.1679474793115797</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.398183979960121</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.01929932274178514</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.1736749390043276</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.1615596180304985</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.1422204924793911</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.2415220112068651</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.1356304129817774</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1517,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.329899333012452</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.2848702148527678</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.152772768333533</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.1824480258855841</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.32416235365983</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>0.1466625221206296</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.1873999463798798</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.1663923293434967</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.285540270568383</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.02686398472301859</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0.05097110066107155</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.08192121962628049</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1561,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.09796247139768463</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2212887300781194</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.055992581109496</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.4667505635778006</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.01472209302729634</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.7088400893053984</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.2667507332475251</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.5311209963538716</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>-0.009112544862106284</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.3391799001539308</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.5342398204830942</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.3998952137808605</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
